--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1358860.783450626</v>
+        <v>1463040.417901698</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>243.2395284792068</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>53.64551730417363</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>198.5184494748472</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>221.1016003276208</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.1127822067372</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>53.64617193596055</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>169.5799223726301</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>233.6829599607978</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.7310187260008</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.2985794357684</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>125.2851635392055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.9742741983392</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>219.8402248542621</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2811815126420993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.5207962406006</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282048</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089825</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4328,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>662.2721046070461</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4516,22 +4518,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.837537633435</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.837537633435</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>843.9205694372858</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>843.9205694372858</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1870.65619074133</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.693673800918</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1501.693673800918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1115.905421202674</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>704.9195164130665</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>289.847066258063</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.256030805452</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4640,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.8535386027987</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>266.9173556748918</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>266.9173556748918</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>617.5020034330385</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>617.5020034330385</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2218.876689164177</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1849.914172223765</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1491.648473617015</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1105.86022101877</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>694.8743162291628</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>279.8018660741592</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4838,16 +4840,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="X8" t="n">
-        <v>2609.016021139988</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>2218.876689164177</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
         <v>456.9449278938906</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1176.23524837796</v>
       </c>
       <c r="W10" t="n">
-        <v>935.322011573528</v>
+        <v>1176.23524837796</v>
       </c>
       <c r="X10" t="n">
-        <v>935.322011573528</v>
+        <v>1176.23524837796</v>
       </c>
       <c r="Y10" t="n">
-        <v>935.322011573528</v>
+        <v>955.4426692344304</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,13 +5062,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,7 +5229,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,49 +5281,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,19 +5600,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>3445.398957336244</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.400247324385</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651093</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723186</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.57138531085</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728457</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>2393.768344230547</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421534</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765732</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559845</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624862</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481332</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,19 +6478,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656159</v>
+        <v>3113.844599961805</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>2944.908417033898</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>2794.791777621562</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.878684039169</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2499.988736541259</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2415.384692536053</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>2126.309465880251</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>4033.692364870552</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>3744.275194833592</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>3516.285643935575</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>3295.493064792045</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6786,19 +6788,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>2951.54259528685</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>2782.606412358944</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>2632.489772946608</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>2484.576679364215</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192571</v>
@@ -7178,28 +7180,28 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2381.235169913446</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>2817.800993781637</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.695539989114</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23467,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>40.23897475306335</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409392964</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>66.34424953498208</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516683</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.845153664064071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>125.505489761039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,10 +25599,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864912</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26522,19 +26524,19 @@
         <v>-1015101.535076978</v>
       </c>
       <c r="C6" t="n">
-        <v>313643.2106506143</v>
+        <v>313643.2106506142</v>
       </c>
       <c r="D6" t="n">
-        <v>313643.2106506143</v>
+        <v>313643.2106506142</v>
       </c>
       <c r="E6" t="n">
-        <v>65544.71299317341</v>
+        <v>65544.71299317342</v>
       </c>
       <c r="F6" t="n">
+        <v>390957.1748005286</v>
+      </c>
+      <c r="G6" t="n">
         <v>390957.1748005285</v>
-      </c>
-      <c r="G6" t="n">
-        <v>390957.1748005284</v>
       </c>
       <c r="H6" t="n">
         <v>390957.1748005285</v>
@@ -26543,25 +26545,25 @@
         <v>390957.1748005284</v>
       </c>
       <c r="J6" t="n">
-        <v>173425.9724032511</v>
+        <v>173425.9724032509</v>
       </c>
       <c r="K6" t="n">
-        <v>390957.1748005286</v>
+        <v>390957.1748005284</v>
       </c>
       <c r="L6" t="n">
         <v>390957.1748005284</v>
       </c>
       <c r="M6" t="n">
-        <v>305902.1468650167</v>
+        <v>305902.1468650168</v>
       </c>
       <c r="N6" t="n">
+        <v>390957.1748005287</v>
+      </c>
+      <c r="O6" t="n">
         <v>390957.1748005284</v>
       </c>
-      <c r="O6" t="n">
-        <v>390957.1748005286</v>
-      </c>
       <c r="P6" t="n">
-        <v>390957.1748005286</v>
+        <v>390957.1748005284</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26792,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>126.4915721992622</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>113.6013037944542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.61919384898081</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>73.5061640596997</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>181.1251564493164</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>92.78779071060862</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>125.0278420146903</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>115.5580087566152</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.1009614559365</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.839063888059627</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31844,10 +31846,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32563,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>705.9257335045846</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,13 +33268,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>697.0074482175629</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868574</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35492,10 +35494,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>574.5840214212514</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>565.6657361342296</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648392</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1463040.417901698</v>
+        <v>1459027.807887705</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>57.29212650174304</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>201.6622187863195</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>53.64551730417363</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>140.8682042557708</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.1127822067372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1192,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>233.6829599607978</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2985794357684</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>127.8153769208897</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>96.02642072444083</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>219.8402248542621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>160.6789846282048</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>20.92847288552852</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.32649042089825</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>85.08368458989422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.3113851298087</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2403.038273524211</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>662.2721046070461</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335303</v>
+        <v>1274.133950373793</v>
       </c>
       <c r="X4" t="n">
-        <v>843.9205694372858</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="Y4" t="n">
-        <v>843.9205694372858</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339056</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077976</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.464090846021</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2394.678395166736</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1176.23524837796</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1176.23524837796</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,37 +5044,37 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532803</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.400247324385</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.715759118498</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.298589081537</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>983.30903818352</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.30903818352</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3113.844599961805</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>2944.908417033898</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>2794.791777621562</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.878684039169</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>2499.988736541259</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4288.376853076439</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>4033.692364870552</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3744.275194833592</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.285643935575</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.493064792045</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2951.54259528685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2782.606412358944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2632.489772946608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2484.576679364215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.61858572567945</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>71.22040037418701</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.34424953498208</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4.845153664064071</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>60.33736343303703</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>80.44045370237463</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.09406519747952</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="N2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015101.535076978</v>
+        <v>-1015101.535076979</v>
       </c>
       <c r="C6" t="n">
-        <v>313643.2106506142</v>
+        <v>313643.2106506146</v>
       </c>
       <c r="D6" t="n">
-        <v>313643.2106506142</v>
+        <v>313643.2106506143</v>
       </c>
       <c r="E6" t="n">
-        <v>65544.71299317342</v>
+        <v>65197.33373881585</v>
       </c>
       <c r="F6" t="n">
-        <v>390957.1748005286</v>
+        <v>390609.7955461715</v>
       </c>
       <c r="G6" t="n">
-        <v>390957.1748005285</v>
+        <v>390609.7955461718</v>
       </c>
       <c r="H6" t="n">
-        <v>390957.1748005285</v>
+        <v>390609.7955461716</v>
       </c>
       <c r="I6" t="n">
-        <v>390957.1748005284</v>
+        <v>390609.7955461715</v>
       </c>
       <c r="J6" t="n">
-        <v>173425.9724032509</v>
+        <v>173078.5931488941</v>
       </c>
       <c r="K6" t="n">
-        <v>390957.1748005284</v>
+        <v>390609.7955461715</v>
       </c>
       <c r="L6" t="n">
-        <v>390957.1748005284</v>
+        <v>390609.7955461713</v>
       </c>
       <c r="M6" t="n">
-        <v>305902.1468650168</v>
+        <v>305554.7676106594</v>
       </c>
       <c r="N6" t="n">
-        <v>390957.1748005287</v>
+        <v>390609.7955461714</v>
       </c>
       <c r="O6" t="n">
-        <v>390957.1748005284</v>
+        <v>390609.7955461714</v>
       </c>
       <c r="P6" t="n">
-        <v>390957.1748005284</v>
+        <v>390609.7955461714</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>325.4417151617375</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921495</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>113.6013037944542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>145.6547940808202</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.1251564493164</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>115.5580087566152</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>6.839063888059627</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639541</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>697.0074482175629</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>565.6657361342296</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1459027.807887705</v>
+        <v>1460788.338190491</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.105228321</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.29212650174304</v>
+        <v>57.29212650174214</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>38.26221019674241</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>140.8682042557708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.6988068886412</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>300.3401491857031</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>37.59617708813222</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886417</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7172236952946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>250.6930286641458</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.8153769208897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>177.314903109061</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428257</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225828</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>96.02642072444083</v>
+        <v>94.80184639741307</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>64.40601307691377</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515511</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>20.92847288552852</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704672973</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5.421623586788428</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171216</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>151.3113851298087</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524211</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>2403.038273524211</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.3518203322459</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1888.645850920066</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1888.645850920066</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783663</v>
+        <v>1599.542984045709</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783663</v>
+        <v>1599.542984045709</v>
       </c>
       <c r="W4" t="n">
-        <v>1274.133950373793</v>
+        <v>1310.125814008748</v>
       </c>
       <c r="X4" t="n">
-        <v>1046.144399475776</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="Y4" t="n">
-        <v>825.3518203322459</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2630.721789066532</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>104.4880528848422</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="8">
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179095</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900026</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>593.6115863900026</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
         <v>261.0127623330919</v>
@@ -5427,61 +5427,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,16 +5670,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5688,37 +5688,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="20">
@@ -5746,31 +5746,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
         <v>705.9324428257312</v>
@@ -5901,22 +5901,22 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,34 +5995,34 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6554,7 +6554,7 @@
         <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9565346495158</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>114.9565346495158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>114.9565346495158</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6630,43 +6630,43 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,49 +6691,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,7 +7013,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7086,7 +7086,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,7 +7487,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.61858572567945</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.0905472182273</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409392978</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>121.5862749664544</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>71.22040037418701</v>
+        <v>72.44497470121476</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>187.7316302469142</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>72.11969353038623</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>60.33736343303703</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194683</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>139.9994244361428</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>116.6691671648157</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.09406519747952</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26322,40 +26322,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015101.535076979</v>
+        <v>-1015101.535076978</v>
       </c>
       <c r="C6" t="n">
-        <v>313643.2106506146</v>
+        <v>313643.2106506141</v>
       </c>
       <c r="D6" t="n">
-        <v>313643.2106506143</v>
+        <v>313643.2106506141</v>
       </c>
       <c r="E6" t="n">
-        <v>65197.33373881585</v>
+        <v>65509.97506773823</v>
       </c>
       <c r="F6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="G6" t="n">
-        <v>390609.7955461718</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="H6" t="n">
-        <v>390609.7955461716</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="I6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="J6" t="n">
-        <v>173078.5931488941</v>
+        <v>173391.2344778152</v>
       </c>
       <c r="K6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="L6" t="n">
-        <v>390609.7955461713</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="M6" t="n">
-        <v>305554.7676106594</v>
+        <v>305867.408939581</v>
       </c>
       <c r="N6" t="n">
-        <v>390609.7955461714</v>
+        <v>390922.4368750926</v>
       </c>
       <c r="O6" t="n">
-        <v>390609.7955461714</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="P6" t="n">
-        <v>390609.7955461714</v>
+        <v>390922.4368750929</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.4417151617375</v>
+        <v>325.4417151617384</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>151.5068151346995</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>145.6547940808202</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.0350347748393</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>85.89778947035046</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>128.429631170896</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>100.0350347748389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.520714960759</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>1.44461465968223</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-3.063623429018965e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>597.1709559744736</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>463.959892919255</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669242</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>455.0369220524553</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359217</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060422</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359229</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010405</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899073</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010403</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
